--- a/IevadesDati/putni_SkaitiPazimes_kops2016.xlsx
+++ b/IevadesDati/putni_SkaitiPazimes_kops2016.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinslocs/Library/Mobile Documents/com~apple~CloudDocs/LU Studijas IV/00_kursa_darbs/01_faili/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinslocs/Documents/LU/kursa-darbs/IevadesDati/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD21021-2F60-6948-BECE-31264DCA987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE76CAC6-4B14-6649-A51D-311694C8B769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="776">
   <si>
     <t>sugaLV</t>
   </si>
@@ -2358,6 +2358,9 @@
   </si>
   <si>
     <t>SkaitsDzied / SkaitsBiotopa</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -2393,12 +2396,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2699,8 +2705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F389"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F389" sqref="F389"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10833,9 +10839,8 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F389" s="1">
-        <f>COUNTIF(F2:F386,"&gt;=1")</f>
-        <v>100</v>
+      <c r="F389" s="3" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
